--- a/Final CSVs/FinalData.xlsx
+++ b/Final CSVs/FinalData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main events kpi's" sheetId="1" r:id="rId1"/>
@@ -11619,15 +11619,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>341586</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>183930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
+      <xdr:colOff>684485</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>155355</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11652,15 +11652,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MainKPIs" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TotalPlayers" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TotalPlayers" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ADP" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ADP" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MainKPIs" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11928,8 +11928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18201,8 +18201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
